--- a/public/sales_report/sales-report.xlsx
+++ b/public/sales_report/sales-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>UserID</t>
   </si>
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t xml:space="preserve">Home
-dfghj, sdfghj,sdfghj,undefined,undefined</t>
+dfghj, sdfghj,sdfghj,34567,undefined</t>
   </si>
   <si>
     <t>dfgfds</t>
@@ -66,10 +66,16 @@
   </si>
   <si>
     <t xml:space="preserve">Work
-dfgdfgf, fgdfgd,dfgdffg,undefined,undefined</t>
+dfgdfgf, fgdfgd,dfgdffg,64554,undefined</t>
   </si>
   <si>
     <t>Female Gold Analog Leather Watch AX5324</t>
+  </si>
+  <si>
+    <t>Male Two Tone Chronograph Stainless Steel Watch</t>
+  </si>
+  <si>
+    <t>online Payment</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -574,6 +580,84 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>45240.66166873842</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>14999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>45243.286449189814</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>29998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>45243.29465465278</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>11999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/sales_report/sales-report.xlsx
+++ b/public/sales_report/sales-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>UserID</t>
   </si>
@@ -43,7 +43,7 @@
     <t>xavi</t>
   </si>
   <si>
-    <t>Captain Cook Automatic Male Stainless Steel Watch R32136323</t>
+    <t>Male Two Tone Chronograph Stainless Steel Watch</t>
   </si>
   <si>
     <t>Delivered</t>
@@ -59,7 +59,7 @@
     <t>dfgfds</t>
   </si>
   <si>
-    <t>Florence Classic Diamonds Male Analog Stainless Steel Watch R48912733</t>
+    <t>Female Gold Analog Leather Watch AX5324</t>
   </si>
   <si>
     <t>Wallet</t>
@@ -69,13 +69,13 @@
 dfgdfgf, fgdfgd,dfgdffg,64554,undefined</t>
   </si>
   <si>
-    <t>Female Gold Analog Leather Watch AX5324</t>
-  </si>
-  <si>
-    <t>Male Two Tone Chronograph Stainless Steel Watch</t>
-  </si>
-  <si>
     <t>online Payment</t>
+  </si>
+  <si>
+    <t>Florence Classic Diamonds Male Analog Stainless Steel Watch R48912733</t>
+  </si>
+  <si>
+    <t>HyperChrome Female Blue Analog Stainless Steel Watch R32110913</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -504,7 +504,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <v>45239.77227427083</v>
+        <v>45239.55648601852</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>20999</v>
+        <v>14999</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>45240.34096758102</v>
+        <v>45240.36319164352</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>11999</v>
+        <v>9999</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -556,25 +556,25 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>45240.36319164352</v>
+        <v>45240.66166873842</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>9999</v>
+        <v>14999</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -582,33 +582,33 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>45240.66166873842</v>
+        <v>45243.286449189814</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>14999</v>
+        <v>29998</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>45243.286449189814</v>
+        <v>45243.29465465278</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -617,16 +617,16 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>29998</v>
+        <v>11999</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>45243.29465465278</v>
+        <v>45251.58338024306</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -646,15 +646,41 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>11999</v>
+        <v>5000</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>45252.676456898145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10499</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
     </row>
